--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120780.8188218831</v>
+        <v>118342.3457221367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>334.3370022409787</v>
+        <v>307.0284381244547</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>245.8117894674653</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>203.4926237682665</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492339</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>90.5051912188231</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>278.1429131767408</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.36001924343139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>167.3807817717015</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271561</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>26.43694042451735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605718954</v>
+        <v>23.10998325717173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788178693</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462246</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892427976</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>222.8161206669594</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520967</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>186.8176706595559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943746</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>970.6561522659902</v>
+        <v>611.6407204003783</v>
       </c>
       <c r="D2" t="n">
-        <v>612.3904536592397</v>
+        <v>611.6407204003783</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0957168234162</v>
+        <v>611.6407204003783</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>611.6407204003783</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836212</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836212</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271513</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836212</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319817</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1384.829779622645</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.867262682233</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>657.6015640754829</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686767</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>821.9838344741147</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>653.0476515462078</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>653.0476515462078</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>505.1345579638147</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>358.2446104659043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>190.5417738406233</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1224.424878447885</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>1003.632299304354</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270471</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5607,13 +5607,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908946</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057745</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5744,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,7 +5786,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038371</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797772</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655283</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>136.1185806047965</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060008</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405049</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865149</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>63.36835372228475</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>65.31997266427209</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890334</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923204</v>
@@ -26320,40 +26320,40 @@
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="G2" t="n">
-        <v>343037.3048682527</v>
-      </c>
       <c r="H2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="I2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="J2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549193</v>
+        <v>48409.12727549204</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26454,7 +26454,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167831.937423791</v>
+        <v>-1168018.330812331</v>
       </c>
       <c r="C6" t="n">
         <v>150044.80064277</v>
       </c>
       <c r="D6" t="n">
-        <v>150044.8006427698</v>
+        <v>150044.80064277</v>
       </c>
       <c r="E6" t="n">
-        <v>-95274.66297981537</v>
+        <v>-95309.40090525108</v>
       </c>
       <c r="F6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.0609021041</v>
       </c>
       <c r="G6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.0609021041</v>
       </c>
       <c r="H6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.060902104</v>
       </c>
       <c r="I6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.0609021043</v>
       </c>
       <c r="J6" t="n">
-        <v>12606.59643026227</v>
+        <v>12571.85850482686</v>
       </c>
       <c r="K6" t="n">
-        <v>230137.79882754</v>
+        <v>230103.0609021044</v>
       </c>
       <c r="L6" t="n">
-        <v>230137.7988275398</v>
+        <v>230103.0609021044</v>
       </c>
       <c r="M6" t="n">
-        <v>145082.770892028</v>
+        <v>145048.0329665924</v>
       </c>
       <c r="N6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.0609021043</v>
       </c>
       <c r="O6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.0609021042</v>
       </c>
       <c r="P6" t="n">
-        <v>230137.7988275397</v>
+        <v>230103.0609021042</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.93588953002887</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>207.4291018851869</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328855</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491473</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7677005521845</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>103.787456895521</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2246341086634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>214.5495883005602</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174589</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>118.3180744898034</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.815998142204466e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.660846363407852e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.815998142204466e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.885306725550132e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096378</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
